--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -40,25 +40,22 @@
     <t>VPS</t>
   </si>
   <si>
-    <t>Torrington</t>
+    <t>Northwest Catholic</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>New Britain</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>Northwest Catholic</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>New Britain</t>
-  </si>
-  <si>
     <t>Glastonbury</t>
   </si>
   <si>
-    <t>Innovation</t>
+    <t>AOS</t>
   </si>
   <si>
     <t>Granby Memorial</t>
@@ -122,16 +119,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="8.0"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF006399"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF661329"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <color rgb="FFCC0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -195,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -205,52 +202,46 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,224 +490,219 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.467</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.099</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.353</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.667</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1.49</v>
+      <c r="D2" s="4">
+        <v>0.364</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.089</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.068</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.647</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.364</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.089</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.068</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.647</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.24</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0.9</v>
+      <c r="D3" s="4">
+        <v>0.597</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.192</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.167</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.607</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1.33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.597</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.192</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.167</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.607</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0.36</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1.33</v>
-      </c>
+      <c r="D4" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.296</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.577</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12">
-        <v>0.41</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.296</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0.577</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0.44</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0.94</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
+      <c r="D5" s="9">
+        <v>0.57</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.091</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.259</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.615</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
-        <v>28</v>
+      <c r="A20" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>26</v>
+      <c r="A21" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -629,6 +629,30 @@
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.185</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.517</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.864</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC17C287-29EA-4462-A233-E887DD84DAF8}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -100,54 +109,73 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF13293F"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF006399"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF661329"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006399"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -167,97 +195,131 @@
         <bgColor rgb="FFF4F6F8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F6F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
-    <border/>
+  <borders count="5">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFEBEFF2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFEBEFF2"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFEBEFF2"/>
       </top>
       <bottom style="thin">
         <color rgb="FFEBEFF2"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFEBEFF2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -447,20 +509,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,27 +556,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="E2" s="5">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F2" s="4">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G2" s="4">
-        <v>0.647</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="H2" s="6">
         <v>0.24</v>
@@ -518,218 +585,243 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="4">
-        <v>0.597</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="E3" s="5">
         <v>0.192</v>
       </c>
       <c r="F3" s="4">
-        <v>0.167</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G3" s="4">
-        <v>0.607</v>
-      </c>
-      <c r="H3" s="8">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H3" s="6">
         <v>0.36</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>1.33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>0.41</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.16</v>
       </c>
-      <c r="F4" s="9">
-        <v>0.296</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.577</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="F4" s="8">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="H4" s="11">
         <v>0.44</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>0.94</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9">
-        <v>0.57</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.091</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.259</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.615</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="D5" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E5" s="9">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="H5" s="11">
         <v>0.42</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>1.64</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.5</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>0.185</v>
       </c>
-      <c r="F6" s="9">
-        <v>0.517</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.864</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="F6" s="8">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H6" s="11">
         <v>0.05</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>1.57</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.76</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC17C287-29EA-4462-A233-E887DD84DAF8}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E916A522-C090-4B57-BF89-42EB1B9D98EE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,6 +165,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF006399"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,6 +308,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,6 +324,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,12 +534,12 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +733,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -753,6 +765,30 @@
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>17</v>
+      </c>
+      <c r="B8" s="18">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.43</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E916A522-C090-4B57-BF89-42EB1B9D98EE}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DA122F0-D64A-4852-97D6-F6DD68AE98A3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -794,6 +794,30 @@
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="B9" s="18">
+        <v>8</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.86</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DA122F0-D64A-4852-97D6-F6DD68AE98A3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C645762-FA0C-4F97-B357-C485BD2B99C1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:I9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -791,7 +791,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -823,6 +823,30 @@
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>19</v>
+      </c>
+      <c r="B10" s="18">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.39</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1.66</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C645762-FA0C-4F97-B357-C485BD2B99C1}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C0990AC-7D95-496C-876F-861485F5EA14}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D11" sqref="D11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -852,6 +852,30 @@
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>20</v>
+      </c>
+      <c r="B11" s="18">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.432</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.157</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1.45</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C0990AC-7D95-496C-876F-861485F5EA14}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08214A3-6F9B-46D9-9F98-4592183D8180}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:I11"/>
+      <selection activeCell="D12" sqref="D12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -849,7 +849,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -881,6 +881,30 @@
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="B12" s="18">
+        <v>11</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1.28</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08214A3-6F9B-46D9-9F98-4592183D8180}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9375495-4C54-44E7-A42D-91DC6FD8EFF4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:I12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -908,48 +908,72 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="18">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9375495-4C54-44E7-A42D-91DC6FD8EFF4}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D758D3CD-7696-4FAA-BF6E-38F249A5D914}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -907,7 +907,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -939,6 +939,30 @@
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="18">
+        <v>13</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.154</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D758D3CD-7696-4FAA-BF6E-38F249A5D914}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA2B7E35-4AF7-4E3B-B806-A4D8F5D89576}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:I14"/>
+      <selection activeCell="D15" sqref="D15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -936,7 +936,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
@@ -968,6 +968,30 @@
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>25</v>
+      </c>
+      <c r="B15" s="18">
+        <v>14</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E15" s="16">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1.6</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA2B7E35-4AF7-4E3B-B806-A4D8F5D89576}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94F428C8-9A3E-43DD-9BD2-92014517D934}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:I15"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -965,7 +965,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
@@ -997,6 +997,30 @@
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>26</v>
+      </c>
+      <c r="B16" s="18">
+        <v>15</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="E16" s="16">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.69</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1.45</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94F428C8-9A3E-43DD-9BD2-92014517D934}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3765384B-AA3F-490A-8115-3AAFDDB3F362}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -994,7 +994,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -1023,27 +1023,51 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>16</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3765384B-AA3F-490A-8115-3AAFDDB3F362}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09767C53-2C22-444C-8E0D-5D760CF12A86}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1023,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>9</v>
       </c>
@@ -1052,24 +1052,72 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.215</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="18">
+        <v>18</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.222</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09767C53-2C22-444C-8E0D-5D760CF12A86}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FAAAF29-994F-4599-A553-A1F692331FE4}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:I19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1081,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1113,6 +1113,30 @@
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="B20" s="18">
+        <v>19</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.157</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0.84</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FAAAF29-994F-4599-A553-A1F692331FE4}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E432657-0FCD-4618-A42C-00BE2C390D0C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Opponent</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1110,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1142,6 +1142,30 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>25</v>
+      </c>
+      <c r="B21" s="18">
+        <v>20</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E21" s="16">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.69</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/BB_team23.xlsx
+++ b/BB_team23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E432657-0FCD-4618-A42C-00BE2C390D0C}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_FCC04D74BF7094DCF6A3BD76C22528E350C25F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B620DB-2BB7-4C36-B35F-B16EB3EE8F18}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Opponent</t>
   </si>
@@ -104,13 +104,16 @@
   </si>
   <si>
     <t>Middletown</t>
+  </si>
+  <si>
+    <t>Bloomfield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -172,6 +175,20 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF006399"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -309,6 +326,16 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +558,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D23" sqref="D23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1166,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1166,6 +1193,64 @@
       </c>
       <c r="I21" s="17">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="18">
+        <v>21</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.44</v>
+      </c>
+      <c r="I22" s="21">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="18">
+        <v>22</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.622</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.217</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H23" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="I23" s="21">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>
